--- a/Data/sgRNA/Figure1/figure1.xlsx
+++ b/Data/sgRNA/Figure1/figure1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowHeight="16560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>sum_intensity</t>
   </si>
@@ -43,6 +43,9 @@
     <t>type</t>
   </si>
   <si>
+    <t>position</t>
+  </si>
+  <si>
     <t>Intact</t>
   </si>
   <si>
@@ -54,16 +57,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -71,7 +74,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -79,14 +82,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -94,7 +97,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -102,7 +105,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -110,7 +113,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -118,7 +121,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -126,14 +129,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -141,7 +144,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -149,7 +152,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -157,14 +160,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -172,42 +175,42 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -517,19 +520,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -668,55 +671,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -977,20 +980,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="19.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="14.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="19.78125" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1003,10 +1006,13 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="B2">
         <v>60000</v>
@@ -1015,12 +1021,12 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="B3">
         <v>57500</v>
@@ -1050,13 +1056,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>30000</v>
+        <v>8000</v>
       </c>
       <c r="B5">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -1064,251 +1070,288 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <f>A5</f>
-        <v>30000</v>
+        <v>2500</v>
       </c>
       <c r="B6">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="str">
-        <f>D5</f>
-        <v>AD</v>
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <f>A6</f>
-        <v>30000</v>
+        <v>1500</v>
       </c>
       <c r="B7">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="str">
-        <f>D6</f>
-        <v>AD</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
-        <f>A7</f>
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="B8">
-        <f>B7+10000</f>
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <f>A8</f>
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="B9">
-        <f>B8+10000</f>
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="D9" t="str">
+        <f>D8</f>
+        <v>AD</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <f>A9</f>
+        <v>40000</v>
+      </c>
+      <c r="B10">
         <v>30000</v>
-      </c>
-      <c r="B10">
-        <f>B9+10000</f>
-        <v>60000</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="str">
+        <f>D9</f>
+        <v>AD</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <f>A10</f>
+        <v>40000</v>
+      </c>
+      <c r="B11">
+        <f>B10+10000</f>
+        <v>40000</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <f>A11</f>
+        <v>40000</v>
+      </c>
+      <c r="B12">
+        <f>B11+10000</f>
+        <v>50000</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>20000</v>
-      </c>
-      <c r="B11">
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <f>A12</f>
+        <v>40000</v>
+      </c>
+      <c r="B13">
+        <f>B12+10000</f>
+        <v>60000</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>50000</v>
+      </c>
+      <c r="B14">
         <v>7500</v>
       </c>
-      <c r="C11">
+      <c r="C14">
         <v>2</v>
       </c>
-      <c r="D11" t="str">
-        <f>D7</f>
-        <v>AD</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>20000</v>
-      </c>
-      <c r="B12">
-        <v>17500</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" t="str">
-        <f>D11</f>
-        <v>AD</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>20000</v>
-      </c>
-      <c r="B13">
-        <v>27500</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="str">
-        <f>D12</f>
-        <v>AD</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <f>A13</f>
-        <v>20000</v>
-      </c>
-      <c r="B14">
-        <f>B13+10000</f>
-        <v>37500</v>
-      </c>
-      <c r="C14">
-        <f>C13</f>
-        <v>2</v>
-      </c>
       <c r="D14" t="str">
-        <f>D13</f>
-        <v>AD</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <f>D10</f>
+        <v>AD</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <f>A14</f>
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="B15">
-        <f>B14+10000</f>
-        <v>47500</v>
+        <v>17500</v>
       </c>
       <c r="C15">
-        <f>C14</f>
         <v>2</v>
       </c>
       <c r="D15" t="str">
         <f>D14</f>
         <v>AD</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <f>A15</f>
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="B16">
-        <f>B15+10000</f>
-        <v>57500</v>
+        <v>27500</v>
       </c>
       <c r="C16">
-        <f>C15</f>
         <v>2</v>
       </c>
       <c r="D16" t="str">
         <f>D15</f>
         <v>AD</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
-        <v>10000</v>
+        <f>A16</f>
+        <v>50000</v>
       </c>
       <c r="B17">
-        <v>5000</v>
+        <f>B16+10000</f>
+        <v>37500</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <f>C16</f>
+        <v>2</v>
       </c>
       <c r="D17" t="str">
-        <f>D13</f>
-        <v>AD</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <f>D16</f>
+        <v>AD</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
-        <v>10000</v>
+        <f>A17</f>
+        <v>50000</v>
       </c>
       <c r="B18">
-        <v>15000</v>
+        <f>B17+10000</f>
+        <v>47500</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <f>C17</f>
+        <v>2</v>
       </c>
       <c r="D18" t="str">
         <f>D17</f>
         <v>AD</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
-        <v>10000</v>
+        <f>A18</f>
+        <v>50000</v>
       </c>
       <c r="B19">
-        <v>25000</v>
+        <f>B18+10000</f>
+        <v>57500</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <f>C18</f>
+        <v>2</v>
       </c>
       <c r="D19" t="str">
         <f>D18</f>
         <v>AD</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
-        <f>A18</f>
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="B20">
-        <v>35000</v>
+        <v>5000</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
       <c r="D20" t="str">
-        <f>D19</f>
-        <v>AD</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <f>D16</f>
+        <v>AD</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
-        <f>A19</f>
-        <v>10000</v>
+        <f>A20</f>
+        <v>30000</v>
       </c>
       <c r="B21">
-        <v>45000</v>
+        <v>15000</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -1317,14 +1360,17 @@
         <f>D20</f>
         <v>AD</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
-        <f>A20</f>
-        <v>10000</v>
+        <f>A21</f>
+        <v>30000</v>
       </c>
       <c r="B22">
-        <v>55000</v>
+        <v>25000</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -1332,6 +1378,361 @@
       <c r="D22" t="str">
         <f>D21</f>
         <v>AD</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <f>A21</f>
+        <v>30000</v>
+      </c>
+      <c r="B23">
+        <v>35000</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" t="str">
+        <f>D22</f>
+        <v>AD</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <f>A22</f>
+        <v>30000</v>
+      </c>
+      <c r="B24">
+        <v>45000</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" t="str">
+        <f>D23</f>
+        <v>AD</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <f>A23</f>
+        <v>30000</v>
+      </c>
+      <c r="B25">
+        <v>55000</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25" t="str">
+        <f>D24</f>
+        <v>AD</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>20000</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26" t="str">
+        <f>D25</f>
+        <v>AD</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <f>A26</f>
+        <v>20000</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27" t="str">
+        <f>D26</f>
+        <v>AD</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <f>A27</f>
+        <v>20000</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28" t="str">
+        <f>D27</f>
+        <v>AD</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <f>A28</f>
+        <v>20000</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29" t="str">
+        <f>D28</f>
+        <v>AD</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <f>A29</f>
+        <v>20000</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30" t="str">
+        <f>D29</f>
+        <v>AD</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <f>A30</f>
+        <v>20000</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31" t="str">
+        <f>D30</f>
+        <v>AD</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>6000</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" ref="D32:D37" si="0">D31</f>
+        <v>AD</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <f>A32</f>
+        <v>6000</v>
+      </c>
+      <c r="C33">
+        <f>C32</f>
+        <v>5</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>AD</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <f>A33</f>
+        <v>6000</v>
+      </c>
+      <c r="C34">
+        <f>C33</f>
+        <v>5</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>AD</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <f>A34</f>
+        <v>6000</v>
+      </c>
+      <c r="C35">
+        <f>C34</f>
+        <v>5</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>AD</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <f>A35</f>
+        <v>6000</v>
+      </c>
+      <c r="C36">
+        <f>C35</f>
+        <v>5</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>AD</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <f>A36</f>
+        <v>6000</v>
+      </c>
+      <c r="C37">
+        <f>C36</f>
+        <v>5</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>AD</v>
+      </c>
+      <c r="E37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>5000</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" ref="D38:D43" si="1">D37</f>
+        <v>AD</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <f>A38</f>
+        <v>5000</v>
+      </c>
+      <c r="C39">
+        <f>C38</f>
+        <v>6</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="1"/>
+        <v>AD</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <f>A39</f>
+        <v>5000</v>
+      </c>
+      <c r="C40">
+        <f>C39</f>
+        <v>6</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="1"/>
+        <v>AD</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <f>A40</f>
+        <v>5000</v>
+      </c>
+      <c r="C41">
+        <f>C40</f>
+        <v>6</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="1"/>
+        <v>AD</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <f>A41</f>
+        <v>5000</v>
+      </c>
+      <c r="C42">
+        <f>C41</f>
+        <v>6</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="1"/>
+        <v>AD</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <f>A42</f>
+        <v>5000</v>
+      </c>
+      <c r="C43">
+        <f>C42</f>
+        <v>6</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="1"/>
+        <v>AD</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1350,7 +1751,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1367,7 +1768,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
